--- a/stock_historical_data/1mo/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1mo/BLUECLOUDS.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3318,6 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3368,6 +3541,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3418,6 +3594,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3468,6 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3518,6 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3568,6 +3753,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3618,6 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3668,6 +3859,9 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3718,6 +3912,60 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B66" t="n">
+        <v>93.06999969482422</v>
+      </c>
+      <c r="C66" t="n">
+        <v>93.06999969482422</v>
+      </c>
+      <c r="D66" t="n">
+        <v>93.06999969482422</v>
+      </c>
+      <c r="E66" t="n">
+        <v>93.06999969482422</v>
+      </c>
+      <c r="F66" t="n">
+        <v>93.06999969482422</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I66" t="n">
+        <v>6</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>22</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1mo/BLUECLOUDS.BO.xlsx
@@ -3965,7 +3965,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
-      <c r="Q66" t="inlineStr"/>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/BLUECLOUDS.BO.xlsx
+++ b/stock_historical_data/1mo/BLUECLOUDS.BO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1475,7 +1531,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1846,7 +1923,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1899,7 +1979,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1952,7 +2035,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2429,7 +2539,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2694,7 +2819,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2747,7 +2875,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2800,7 +2931,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2853,7 +2987,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2906,7 +3043,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2959,7 +3099,10 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3701,7 +3883,10 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3913,33 +4107,34 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45444</v>
+        <v>44348</v>
       </c>
       <c r="B66" t="n">
-        <v>113.1100006103516</v>
+        <v>4.5</v>
       </c>
       <c r="C66" t="n">
-        <v>113.1100006103516</v>
+        <v>4.664999961853027</v>
       </c>
       <c r="D66" t="n">
-        <v>105.5</v>
+        <v>4.425000190734863</v>
       </c>
       <c r="E66" t="n">
-        <v>113.1100006103516</v>
-      </c>
-      <c r="F66" t="n">
-        <v>113.1100006103516</v>
-      </c>
+        <v>4.425000190734863</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>3476</v>
       </c>
       <c r="H66" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="I66" t="n">
         <v>6</v>
@@ -3959,15 +4154,2168 @@
       <c r="N66" t="n">
         <v>22</v>
       </c>
-      <c r="O66" t="n">
-        <v>0</v>
-      </c>
-      <c r="P66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>0</v>
-      </c>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="B67" t="n">
+        <v>4.425000190734863</v>
+      </c>
+      <c r="C67" t="n">
+        <v>5.144999980926514</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3.825000047683716</v>
+      </c>
+      <c r="E67" t="n">
+        <v>5.099999904632568</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>69286</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2021</v>
+      </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>26</v>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="B68" t="n">
+        <v>5.099999904632568</v>
+      </c>
+      <c r="C68" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E68" t="n">
+        <v>5.875</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>85482</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2021</v>
+      </c>
+      <c r="I68" t="n">
+        <v>8</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>30</v>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="B69" t="n">
+        <v>5.875</v>
+      </c>
+      <c r="C69" t="n">
+        <v>5.949999809265137</v>
+      </c>
+      <c r="D69" t="n">
+        <v>4.65500020980835</v>
+      </c>
+      <c r="E69" t="n">
+        <v>5.175000190734863</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>7366</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2021</v>
+      </c>
+      <c r="I69" t="n">
+        <v>9</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>35</v>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5.175000190734863</v>
+      </c>
+      <c r="C70" t="n">
+        <v>6.050000190734863</v>
+      </c>
+      <c r="D70" t="n">
+        <v>5</v>
+      </c>
+      <c r="E70" t="n">
+        <v>6.025000095367432</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>21168</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2021</v>
+      </c>
+      <c r="I70" t="n">
+        <v>10</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>39</v>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>44501</v>
+      </c>
+      <c r="B71" t="n">
+        <v>6.150000095367432</v>
+      </c>
+      <c r="C71" t="n">
+        <v>6.175000190734863</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5.034999847412109</v>
+      </c>
+      <c r="E71" t="n">
+        <v>5.034999847412109</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>11596</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2021</v>
+      </c>
+      <c r="I71" t="n">
+        <v>11</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>44</v>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>44531</v>
+      </c>
+      <c r="B72" t="n">
+        <v>5.034999847412109</v>
+      </c>
+      <c r="C72" t="n">
+        <v>9.654999732971191</v>
+      </c>
+      <c r="D72" t="n">
+        <v>4.800000190734863</v>
+      </c>
+      <c r="E72" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>379832</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2021</v>
+      </c>
+      <c r="I72" t="n">
+        <v>12</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>48</v>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="B73" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C73" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D73" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="E73" t="n">
+        <v>8</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>56876</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>52</v>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B74" t="n">
+        <v>7.650000095367432</v>
+      </c>
+      <c r="C74" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="D74" t="n">
+        <v>6.949999809265137</v>
+      </c>
+      <c r="E74" t="n">
+        <v>8.350000381469727</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>49300</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>5</v>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B75" t="n">
+        <v>7.949999809265137</v>
+      </c>
+      <c r="C75" t="n">
+        <v>7.949999809265137</v>
+      </c>
+      <c r="D75" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E75" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>4630</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>9</v>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B76" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="C76" t="n">
+        <v>9.600000381469727</v>
+      </c>
+      <c r="D76" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="E76" t="n">
+        <v>8.930000305175781</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>114116</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I76" t="n">
+        <v>4</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>13</v>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B77" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C77" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D77" t="n">
+        <v>8.350000381469727</v>
+      </c>
+      <c r="E77" t="n">
+        <v>8.350000381469727</v>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>210</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I77" t="n">
+        <v>5</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>17</v>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B78" t="n">
+        <v>8.524999618530273</v>
+      </c>
+      <c r="C78" t="n">
+        <v>8.524999618530273</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5.349999904632568</v>
+      </c>
+      <c r="E78" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>13310</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I78" t="n">
+        <v>6</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>22</v>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="C79" t="n">
+        <v>6.699999809265137</v>
+      </c>
+      <c r="D79" t="n">
+        <v>5.400000095367432</v>
+      </c>
+      <c r="E79" t="n">
+        <v>5.40500020980835</v>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>42166</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I79" t="n">
+        <v>7</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>26</v>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5.40500020980835</v>
+      </c>
+      <c r="C80" t="n">
+        <v>6.974999904632568</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5.244999885559082</v>
+      </c>
+      <c r="E80" t="n">
+        <v>6.440000057220459</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="n">
+        <v>127294</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I80" t="n">
+        <v>8</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>31</v>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B81" t="n">
+        <v>6.994999885559082</v>
+      </c>
+      <c r="C81" t="n">
+        <v>8.659999847412109</v>
+      </c>
+      <c r="D81" t="n">
+        <v>6.150000095367432</v>
+      </c>
+      <c r="E81" t="n">
+        <v>7.925000190734863</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>194408</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I81" t="n">
+        <v>9</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>35</v>
+      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="B82" t="n">
+        <v>7.974999904632568</v>
+      </c>
+      <c r="C82" t="n">
+        <v>7.974999904632568</v>
+      </c>
+      <c r="D82" t="n">
+        <v>6.199999809265137</v>
+      </c>
+      <c r="E82" t="n">
+        <v>6.775000095367432</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>39470</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I82" t="n">
+        <v>10</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>39</v>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B83" t="n">
+        <v>7.110000133514404</v>
+      </c>
+      <c r="C83" t="n">
+        <v>7.784999847412109</v>
+      </c>
+      <c r="D83" t="n">
+        <v>6.349999904632568</v>
+      </c>
+      <c r="E83" t="n">
+        <v>7.054999828338623</v>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>78102</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I83" t="n">
+        <v>11</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>44</v>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B84" t="n">
+        <v>7.264999866485596</v>
+      </c>
+      <c r="C84" t="n">
+        <v>7.559999942779541</v>
+      </c>
+      <c r="D84" t="n">
+        <v>6.050000190734863</v>
+      </c>
+      <c r="E84" t="n">
+        <v>6.710000038146973</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>59380</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I84" t="n">
+        <v>12</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>48</v>
+      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B85" t="n">
+        <v>6.84499979019165</v>
+      </c>
+      <c r="C85" t="n">
+        <v>7.650000095367432</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5.934999942779541</v>
+      </c>
+      <c r="E85" t="n">
+        <v>6.994999885559082</v>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>88742</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>52</v>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B86" t="n">
+        <v>6.994999885559082</v>
+      </c>
+      <c r="C86" t="n">
+        <v>11.57499980926514</v>
+      </c>
+      <c r="D86" t="n">
+        <v>6.135000228881836</v>
+      </c>
+      <c r="E86" t="n">
+        <v>11.57499980926514</v>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>308000</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>5</v>
+      </c>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B87" t="n">
+        <v>12.14999961853027</v>
+      </c>
+      <c r="C87" t="n">
+        <v>26.31999969482422</v>
+      </c>
+      <c r="D87" t="n">
+        <v>12.14999961853027</v>
+      </c>
+      <c r="E87" t="n">
+        <v>26.31999969482422</v>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>924210</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I87" t="n">
+        <v>3</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>9</v>
+      </c>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B88" t="n">
+        <v>27.63500022888184</v>
+      </c>
+      <c r="C88" t="n">
+        <v>49.46500015258789</v>
+      </c>
+      <c r="D88" t="n">
+        <v>24.94499969482422</v>
+      </c>
+      <c r="E88" t="n">
+        <v>40.39500045776367</v>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>573570</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I88" t="n">
+        <v>4</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>13</v>
+      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B89" t="n">
+        <v>38.38000106811523</v>
+      </c>
+      <c r="C89" t="n">
+        <v>39.40000152587891</v>
+      </c>
+      <c r="D89" t="n">
+        <v>25.47500038146973</v>
+      </c>
+      <c r="E89" t="n">
+        <v>35.72999954223633</v>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>857016</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I89" t="n">
+        <v>5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>18</v>
+      </c>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B90" t="n">
+        <v>37.375</v>
+      </c>
+      <c r="C90" t="n">
+        <v>37.375</v>
+      </c>
+      <c r="D90" t="n">
+        <v>28.39999961853027</v>
+      </c>
+      <c r="E90" t="n">
+        <v>31.67499923706055</v>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>280592</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I90" t="n">
+        <v>6</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>22</v>
+      </c>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B91" t="n">
+        <v>32</v>
+      </c>
+      <c r="C91" t="n">
+        <v>33.90000152587891</v>
+      </c>
+      <c r="D91" t="n">
+        <v>27.70499992370605</v>
+      </c>
+      <c r="E91" t="n">
+        <v>32.38999938964844</v>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>148828</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I91" t="n">
+        <v>7</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>26</v>
+      </c>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B92" t="n">
+        <v>30.77499961853027</v>
+      </c>
+      <c r="C92" t="n">
+        <v>39.91999816894531</v>
+      </c>
+      <c r="D92" t="n">
+        <v>29.53000068664551</v>
+      </c>
+      <c r="E92" t="n">
+        <v>36.56499862670898</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>270420</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I92" t="n">
+        <v>8</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>31</v>
+      </c>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B93" t="n">
+        <v>35.83499908447266</v>
+      </c>
+      <c r="C93" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D93" t="n">
+        <v>29.29999923706055</v>
+      </c>
+      <c r="E93" t="n">
+        <v>32.375</v>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>104930</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I93" t="n">
+        <v>9</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>35</v>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B94" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="C94" t="n">
+        <v>45.18500137329102</v>
+      </c>
+      <c r="D94" t="n">
+        <v>30.76000022888184</v>
+      </c>
+      <c r="E94" t="n">
+        <v>39.90000152587891</v>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>449952</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I94" t="n">
+        <v>10</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>39</v>
+      </c>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B95" t="n">
+        <v>39.92499923706055</v>
+      </c>
+      <c r="C95" t="n">
+        <v>43.25</v>
+      </c>
+      <c r="D95" t="n">
+        <v>32.84999847412109</v>
+      </c>
+      <c r="E95" t="n">
+        <v>33.30500030517578</v>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>547236</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I95" t="n">
+        <v>11</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>44</v>
+      </c>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B96" t="n">
+        <v>33</v>
+      </c>
+      <c r="C96" t="n">
+        <v>34.49499893188477</v>
+      </c>
+      <c r="D96" t="n">
+        <v>28.7549991607666</v>
+      </c>
+      <c r="E96" t="n">
+        <v>28.95499992370605</v>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>1131842</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I96" t="n">
+        <v>12</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>48</v>
+      </c>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B97" t="n">
+        <v>29.47500038146973</v>
+      </c>
+      <c r="C97" t="n">
+        <v>33.75</v>
+      </c>
+      <c r="D97" t="n">
+        <v>27.9950008392334</v>
+      </c>
+      <c r="E97" t="n">
+        <v>31.31500053405762</v>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>2174282</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B98" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="C98" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="D98" t="n">
+        <v>27.88999938964844</v>
+      </c>
+      <c r="E98" t="n">
+        <v>29.72500038146973</v>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>1050598</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>5</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
+      <c r="R98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B99" t="n">
+        <v>30.64999961853027</v>
+      </c>
+      <c r="C99" t="n">
+        <v>31.15500068664551</v>
+      </c>
+      <c r="D99" t="n">
+        <v>23.04000091552734</v>
+      </c>
+      <c r="E99" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>1062488</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>9</v>
+      </c>
+      <c r="O99" t="n">
+        <v>2</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B100" t="n">
+        <v>25.60000038146973</v>
+      </c>
+      <c r="C100" t="n">
+        <v>44.0099983215332</v>
+      </c>
+      <c r="D100" t="n">
+        <v>24.85499954223633</v>
+      </c>
+      <c r="E100" t="n">
+        <v>44.0099983215332</v>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>1851332</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I100" t="n">
+        <v>4</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>14</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B101" t="n">
+        <v>48.40999984741211</v>
+      </c>
+      <c r="C101" t="n">
+        <v>58.70000076293945</v>
+      </c>
+      <c r="D101" t="n">
+        <v>33.40000152587891</v>
+      </c>
+      <c r="E101" t="n">
+        <v>44.31999969482422</v>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>28388248</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I101" t="n">
+        <v>5</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>18</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B102" t="n">
+        <v>113.1100006103516</v>
+      </c>
+      <c r="C102" t="n">
+        <v>113.1100006103516</v>
+      </c>
+      <c r="D102" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="E102" t="n">
+        <v>113.1100006103516</v>
+      </c>
+      <c r="F102" t="n">
+        <v>113.1100006103516</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I102" t="n">
+        <v>6</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>22</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B103" t="n">
+        <v>112.9000015258789</v>
+      </c>
+      <c r="C103" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="D103" t="n">
+        <v>101.5749969482422</v>
+      </c>
+      <c r="E103" t="n">
+        <v>119.375</v>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>9467758</v>
+      </c>
+      <c r="H103" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I103" t="n">
+        <v>7</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>27</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B104" t="n">
+        <v>117.6500015258789</v>
+      </c>
+      <c r="C104" t="n">
+        <v>127.125</v>
+      </c>
+      <c r="D104" t="n">
+        <v>101.25</v>
+      </c>
+      <c r="E104" t="n">
+        <v>106.3249969482422</v>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>2330830</v>
+      </c>
+      <c r="H104" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I104" t="n">
+        <v>8</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>31</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B105" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="C105" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="D105" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="E105" t="n">
+        <v>81.80000305175781</v>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="n">
+        <v>16689390</v>
+      </c>
+      <c r="H105" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I105" t="n">
+        <v>9</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>35</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B106" t="n">
+        <v>83</v>
+      </c>
+      <c r="C106" t="n">
+        <v>88.42500305175781</v>
+      </c>
+      <c r="D106" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="E106" t="n">
+        <v>73.25</v>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="n">
+        <v>9913688</v>
+      </c>
+      <c r="H106" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I106" t="n">
+        <v>10</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>40</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B107" t="n">
+        <v>76.30000305175781</v>
+      </c>
+      <c r="C107" t="n">
+        <v>79.94999694824219</v>
+      </c>
+      <c r="D107" t="n">
+        <v>66.52500152587891</v>
+      </c>
+      <c r="E107" t="n">
+        <v>70.25</v>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="n">
+        <v>3572562</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I107" t="n">
+        <v>11</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>44</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>2</v>
+      </c>
+      <c r="R107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B108" t="n">
+        <v>70.09999847412109</v>
+      </c>
+      <c r="C108" t="n">
+        <v>72.875</v>
+      </c>
+      <c r="D108" t="n">
+        <v>43.25</v>
+      </c>
+      <c r="E108" t="n">
+        <v>49.125</v>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="n">
+        <v>17022948</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I108" t="n">
+        <v>12</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>48</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B109" t="n">
+        <v>49.70000076293945</v>
+      </c>
+      <c r="C109" t="n">
+        <v>52.63999938964844</v>
+      </c>
+      <c r="D109" t="n">
+        <v>32.66999816894531</v>
+      </c>
+      <c r="E109" t="n">
+        <v>39.7599983215332</v>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="n">
+        <v>6343196</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B110" t="n">
+        <v>39.81999969482422</v>
+      </c>
+      <c r="C110" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="D110" t="n">
+        <v>27.54999923706055</v>
+      </c>
+      <c r="E110" t="n">
+        <v>28.47999954223633</v>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="n">
+        <v>5726785</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>5</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B111" t="n">
+        <v>28.51000022888184</v>
+      </c>
+      <c r="C111" t="n">
+        <v>29.79999923706055</v>
+      </c>
+      <c r="D111" t="n">
+        <v>16.29999923706055</v>
+      </c>
+      <c r="E111" t="n">
+        <v>17.63999938964844</v>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="n">
+        <v>11491794</v>
+      </c>
+      <c r="H111" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>9</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R111" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
